--- a/data/data13.xlsx
+++ b/data/data13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Sentiment_analysis_learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Thesis\GIT\Thesis_relevant\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C994E-1926-4B12-A86B-B475FDB580F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A53AB4-2671-46B3-9CE7-C186CD520A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportComments.com" sheetId="1" r:id="rId1"/>
@@ -743,13 +743,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -760,7 +760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -888,7 +888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -929,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -937,7 +937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -945,7 +945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -953,7 +953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -986,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -994,7 +994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>115</v>
       </c>
